--- a/Excel/excel/xls/D等级表.xlsx
+++ b/Excel/excel/xls/D等级表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14805" windowHeight="8025"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,23 +38,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>星星1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星2</t>
+  </si>
+  <si>
+    <t>星星3</t>
+  </si>
+  <si>
+    <t>月亮1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮2</t>
+  </si>
+  <si>
+    <t>月亮3</t>
+  </si>
+  <si>
+    <t>太阳1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳2</t>
+  </si>
+  <si>
+    <t>太阳3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +82,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -90,8 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -102,12 +131,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -149,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -430,11 +462,11 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1000</v>
+      <c r="C3" s="1">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -444,11 +476,11 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
+      <c r="B4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -458,14 +490,98 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3000</v>
+      <c r="B5" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>300</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>600</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>950</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2700</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/D等级表.xlsx
+++ b/Excel/excel/xls/D等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="等级" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,16 +38,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>星星1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星2</t>
+  </si>
+  <si>
+    <t>星星3</t>
+  </si>
+  <si>
+    <t>月亮1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮2</t>
+  </si>
+  <si>
+    <t>月亮3</t>
+  </si>
+  <si>
+    <t>太阳1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳2</t>
+  </si>
+  <si>
+    <t>太阳3</t>
+  </si>
+  <si>
+    <t>太阳4</t>
+  </si>
+  <si>
+    <t>太阳5</t>
   </si>
 </sst>
 </file>
@@ -393,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -445,10 +469,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>11000</v>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -459,13 +483,125 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="C5">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>15000</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17000</v>
+      </c>
+      <c r="C7">
+        <v>900</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>20000</v>
+      </c>
+      <c r="C8">
+        <v>1200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>23000</v>
+      </c>
+      <c r="C9">
+        <v>1500</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>25000</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>30000</v>
+      </c>
+      <c r="C11">
+        <v>3000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>32000</v>
+      </c>
+      <c r="C12">
+        <v>4000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>35000</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/D等级表.xlsx
+++ b/Excel/excel/xls/D等级表.xlsx
@@ -38,40 +38,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>星星2</t>
+  </si>
+  <si>
+    <t>星星3</t>
+  </si>
+  <si>
+    <t>月亮2</t>
+  </si>
+  <si>
+    <t>月亮3</t>
+  </si>
+  <si>
+    <t>太阳2</t>
+  </si>
+  <si>
+    <t>太阳3</t>
+  </si>
+  <si>
+    <t>太阳4</t>
+  </si>
+  <si>
+    <t>太阳5</t>
+  </si>
+  <si>
     <t>星星1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星星2</t>
-  </si>
-  <si>
-    <t>星星3</t>
-  </si>
-  <si>
     <t>月亮1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月亮2</t>
-  </si>
-  <si>
-    <t>月亮3</t>
-  </si>
-  <si>
     <t>太阳1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳2</t>
-  </si>
-  <si>
-    <t>太阳3</t>
-  </si>
-  <si>
-    <t>太阳4</t>
-  </si>
-  <si>
-    <t>太阳5</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -475,7 +475,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -489,7 +489,7 @@
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -503,7 +503,7 @@
         <v>600</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -514,10 +514,10 @@
         <v>17000</v>
       </c>
       <c r="C7">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -531,7 +531,7 @@
         <v>1200</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -542,10 +542,10 @@
         <v>23000</v>
       </c>
       <c r="C9">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -556,10 +556,10 @@
         <v>25000</v>
       </c>
       <c r="C10">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -570,10 +570,10 @@
         <v>30000</v>
       </c>
       <c r="C11">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -584,10 +584,10 @@
         <v>32000</v>
       </c>
       <c r="C12">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -598,10 +598,10 @@
         <v>35000</v>
       </c>
       <c r="C13">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/D等级表.xlsx
+++ b/Excel/excel/xls/D等级表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>太阳3</t>
-  </si>
-  <si>
-    <t>太阳4</t>
-  </si>
-  <si>
-    <t>太阳5</t>
   </si>
   <si>
     <t>星星1</t>
@@ -126,12 +120,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,7 +205,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -503,7 +500,7 @@
         <v>600</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -545,7 +542,7 @@
         <v>1800</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -574,34 +571,6 @@
       </c>
       <c r="D11" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>32000</v>
-      </c>
-      <c r="C12">
-        <v>5000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>35000</v>
-      </c>
-      <c r="C13">
-        <v>6000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/D等级表.xlsx
+++ b/Excel/excel/xls/D等级表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="等级" sheetId="1" r:id="rId1"/>
@@ -16,55 +16,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>ICON状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星2</t>
+  </si>
+  <si>
+    <t>星星3</t>
+  </si>
+  <si>
+    <t>月亮2</t>
+  </si>
+  <si>
+    <t>月亮3</t>
+  </si>
+  <si>
+    <t>太阳2</t>
+  </si>
+  <si>
+    <t>太阳3</t>
+  </si>
+  <si>
+    <t>星星1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩放比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICON状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星2</t>
-  </si>
-  <si>
-    <t>星星3</t>
-  </si>
-  <si>
-    <t>月亮2</t>
-  </si>
-  <si>
-    <t>月亮3</t>
-  </si>
-  <si>
-    <t>太阳2</t>
-  </si>
-  <si>
-    <t>太阳3</t>
-  </si>
-  <si>
-    <t>星星1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月亮1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳1</t>
+    <t>碰撞范围比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,40 +418,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -455,13 +463,16 @@
         <v>10000</v>
       </c>
       <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -469,13 +480,16 @@
         <v>11000</v>
       </c>
       <c r="C4">
+        <v>11000</v>
+      </c>
+      <c r="D4">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -483,13 +497,16 @@
         <v>12000</v>
       </c>
       <c r="C5">
+        <v>12000</v>
+      </c>
+      <c r="D5">
         <v>300</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -497,13 +514,16 @@
         <v>15000</v>
       </c>
       <c r="C6">
+        <v>15000</v>
+      </c>
+      <c r="D6">
         <v>600</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -511,13 +531,16 @@
         <v>17000</v>
       </c>
       <c r="C7">
+        <v>17000</v>
+      </c>
+      <c r="D7">
         <v>950</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -525,13 +548,16 @@
         <v>20000</v>
       </c>
       <c r="C8">
+        <v>20000</v>
+      </c>
+      <c r="D8">
         <v>1200</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -539,13 +565,16 @@
         <v>23000</v>
       </c>
       <c r="C9">
+        <v>23000</v>
+      </c>
+      <c r="D9">
         <v>1800</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -553,13 +582,16 @@
         <v>25000</v>
       </c>
       <c r="C10">
+        <v>25000</v>
+      </c>
+      <c r="D10">
         <v>2700</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -567,10 +599,13 @@
         <v>30000</v>
       </c>
       <c r="C11">
+        <v>30000</v>
+      </c>
+      <c r="D11">
         <v>4000</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/D等级表.xlsx
+++ b/Excel/excel/xls/D等级表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -174,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -528,10 +528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="C7">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="D7">
         <v>950</v>
@@ -545,10 +545,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="C8">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="D8">
         <v>1200</v>
@@ -562,10 +562,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="C9">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="D9">
         <v>1800</v>
@@ -579,10 +579,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="C10">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="D10">
         <v>2700</v>
@@ -596,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C11">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="D11">
         <v>4000</v>

--- a/Excel/excel/xls/D等级表.xlsx
+++ b/Excel/excel/xls/D等级表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ICON状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>碰撞范围比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -174,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,22 +422,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="3" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -444,18 +448,21 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -466,13 +473,16 @@
         <v>10000</v>
       </c>
       <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -483,13 +493,16 @@
         <v>11000</v>
       </c>
       <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
         <v>100</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -500,13 +513,16 @@
         <v>12000</v>
       </c>
       <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
         <v>300</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -517,13 +533,16 @@
         <v>15000</v>
       </c>
       <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
         <v>600</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -534,13 +553,16 @@
         <v>16000</v>
       </c>
       <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="E7">
         <v>950</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -551,13 +573,16 @@
         <v>17000</v>
       </c>
       <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
         <v>1200</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -568,13 +593,16 @@
         <v>18000</v>
       </c>
       <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9">
         <v>1800</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -585,13 +613,16 @@
         <v>19000</v>
       </c>
       <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10">
         <v>2700</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -602,9 +633,12 @@
         <v>20000</v>
       </c>
       <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
         <v>4000</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>
